--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.6554109066817</v>
+        <v>44.471632</v>
       </c>
       <c r="H2">
-        <v>39.6554109066817</v>
+        <v>133.414896</v>
       </c>
       <c r="I2">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="J2">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.085661138887</v>
+        <v>16.17516666666667</v>
       </c>
       <c r="N2">
-        <v>15.085661138887</v>
+        <v>48.52549999999999</v>
       </c>
       <c r="O2">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="P2">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="Q2">
-        <v>598.2280912615238</v>
+        <v>719.3360595386666</v>
       </c>
       <c r="R2">
-        <v>598.2280912615238</v>
+        <v>6474.024535847999</v>
       </c>
       <c r="S2">
-        <v>0.05282442979702148</v>
+        <v>0.0587373476193526</v>
       </c>
       <c r="T2">
-        <v>0.05282442979702148</v>
+        <v>0.0587373476193526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.6554109066817</v>
+        <v>44.471632</v>
       </c>
       <c r="H3">
-        <v>39.6554109066817</v>
+        <v>133.414896</v>
       </c>
       <c r="I3">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="J3">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.4494485437885</v>
+        <v>21.45763766666667</v>
       </c>
       <c r="N3">
-        <v>21.4494485437885</v>
+        <v>64.372913</v>
       </c>
       <c r="O3">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596838</v>
       </c>
       <c r="P3">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596839</v>
       </c>
       <c r="Q3">
-        <v>850.5866957256584</v>
+        <v>954.2561659013387</v>
       </c>
       <c r="R3">
-        <v>850.5866957256584</v>
+        <v>8588.305493112048</v>
       </c>
       <c r="S3">
-        <v>0.07510806973288381</v>
+        <v>0.07791973638914265</v>
       </c>
       <c r="T3">
-        <v>0.07510806973288381</v>
+        <v>0.07791973638914268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.6554109066817</v>
+        <v>44.471632</v>
       </c>
       <c r="H4">
-        <v>39.6554109066817</v>
+        <v>133.414896</v>
       </c>
       <c r="I4">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="J4">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.530272502576</v>
+        <v>16.29472433333333</v>
       </c>
       <c r="N4">
-        <v>15.530272502576</v>
+        <v>48.884173</v>
       </c>
       <c r="O4">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="P4">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="Q4">
-        <v>615.8593375823913</v>
+        <v>724.6529840934454</v>
       </c>
       <c r="R4">
-        <v>615.8593375823913</v>
+        <v>6521.876856841009</v>
       </c>
       <c r="S4">
-        <v>0.05438129505814059</v>
+        <v>0.0591715008106165</v>
       </c>
       <c r="T4">
-        <v>0.05438129505814059</v>
+        <v>0.05917150081061651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.6554109066817</v>
+        <v>44.471632</v>
       </c>
       <c r="H5">
-        <v>39.6554109066817</v>
+        <v>133.414896</v>
       </c>
       <c r="I5">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="J5">
-        <v>0.2500165973865461</v>
+        <v>0.2668714234083088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3346439345504</v>
+        <v>19.56386866666667</v>
       </c>
       <c r="N5">
-        <v>19.3346439345504</v>
+        <v>58.69160600000001</v>
       </c>
       <c r="O5">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="P5">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="Q5">
-        <v>766.7232499589771</v>
+        <v>870.0371678403308</v>
       </c>
       <c r="R5">
-        <v>766.7232499589771</v>
+        <v>7830.334510562977</v>
       </c>
       <c r="S5">
-        <v>0.06770280279850022</v>
+        <v>0.07104283858919705</v>
       </c>
       <c r="T5">
-        <v>0.06770280279850022</v>
+        <v>0.07104283858919706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.017411150139</v>
+        <v>37.05790966666667</v>
       </c>
       <c r="H6">
-        <v>37.017411150139</v>
+        <v>111.173729</v>
       </c>
       <c r="I6">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="J6">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.085661138887</v>
+        <v>16.17516666666667</v>
       </c>
       <c r="N6">
-        <v>15.085661138887</v>
+        <v>48.52549999999999</v>
       </c>
       <c r="O6">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="P6">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="Q6">
-        <v>558.4321208498542</v>
+        <v>599.4178651766111</v>
       </c>
       <c r="R6">
-        <v>558.4321208498542</v>
+        <v>5394.760786589499</v>
       </c>
       <c r="S6">
-        <v>0.04931038644813337</v>
+        <v>0.04894543384730219</v>
       </c>
       <c r="T6">
-        <v>0.04931038644813337</v>
+        <v>0.04894543384730218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.017411150139</v>
+        <v>37.05790966666667</v>
       </c>
       <c r="H7">
-        <v>37.017411150139</v>
+        <v>111.173729</v>
       </c>
       <c r="I7">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="J7">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4494485437885</v>
+        <v>21.45763766666667</v>
       </c>
       <c r="N7">
-        <v>21.4494485437885</v>
+        <v>64.372913</v>
       </c>
       <c r="O7">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596838</v>
       </c>
       <c r="P7">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596839</v>
       </c>
       <c r="Q7">
-        <v>794.0030556891691</v>
+        <v>795.1751983113975</v>
       </c>
       <c r="R7">
-        <v>794.0030556891691</v>
+        <v>7156.576784802576</v>
       </c>
       <c r="S7">
-        <v>0.0701116501992167</v>
+        <v>0.06492998845554686</v>
       </c>
       <c r="T7">
-        <v>0.0701116501992167</v>
+        <v>0.06492998845554687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.017411150139</v>
+        <v>37.05790966666667</v>
       </c>
       <c r="H8">
-        <v>37.017411150139</v>
+        <v>111.173729</v>
       </c>
       <c r="I8">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="J8">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.530272502576</v>
+        <v>16.29472433333333</v>
       </c>
       <c r="N8">
-        <v>15.530272502576</v>
+        <v>48.884173</v>
       </c>
       <c r="O8">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="P8">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="Q8">
-        <v>574.8904825015539</v>
+        <v>603.8484223879019</v>
       </c>
       <c r="R8">
-        <v>574.8904825015539</v>
+        <v>5434.635801491117</v>
       </c>
       <c r="S8">
-        <v>0.05076368424932962</v>
+        <v>0.04930721076035437</v>
       </c>
       <c r="T8">
-        <v>0.05076368424932962</v>
+        <v>0.04930721076035437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.017411150139</v>
+        <v>37.05790966666667</v>
       </c>
       <c r="H9">
-        <v>37.017411150139</v>
+        <v>111.173729</v>
       </c>
       <c r="I9">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="J9">
-        <v>0.2333847252672683</v>
+        <v>0.2223821491705063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.3346439345504</v>
+        <v>19.56386866666667</v>
       </c>
       <c r="N9">
-        <v>19.3346439345504</v>
+        <v>58.69160600000001</v>
       </c>
       <c r="O9">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="P9">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="Q9">
-        <v>715.7184639667933</v>
+        <v>724.9960777798639</v>
       </c>
       <c r="R9">
-        <v>715.7184639667933</v>
+        <v>6524.964700018774</v>
       </c>
       <c r="S9">
-        <v>0.06319900437058859</v>
+        <v>0.05919951610730285</v>
       </c>
       <c r="T9">
-        <v>0.06319900437058859</v>
+        <v>0.05919951610730286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.6077899973236</v>
+        <v>39.65536166666666</v>
       </c>
       <c r="H10">
-        <v>36.6077899973236</v>
+        <v>118.966085</v>
       </c>
       <c r="I10">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="J10">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.085661138887</v>
+        <v>16.17516666666667</v>
       </c>
       <c r="N10">
-        <v>15.085661138887</v>
+        <v>48.52549999999999</v>
       </c>
       <c r="O10">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="P10">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="Q10">
-        <v>552.2527149431609</v>
+        <v>641.4320841852777</v>
       </c>
       <c r="R10">
-        <v>552.2527149431609</v>
+        <v>5772.888757667499</v>
       </c>
       <c r="S10">
-        <v>0.04876473572013584</v>
+        <v>0.05237610266216787</v>
       </c>
       <c r="T10">
-        <v>0.04876473572013584</v>
+        <v>0.05237610266216787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.6077899973236</v>
+        <v>39.65536166666666</v>
       </c>
       <c r="H11">
-        <v>36.6077899973236</v>
+        <v>118.966085</v>
       </c>
       <c r="I11">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="J11">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.4494485437885</v>
+        <v>21.45763766666667</v>
       </c>
       <c r="N11">
-        <v>21.4494485437885</v>
+        <v>64.372913</v>
       </c>
       <c r="O11">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596838</v>
       </c>
       <c r="P11">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596839</v>
       </c>
       <c r="Q11">
-        <v>785.2169078494079</v>
+        <v>850.910382183956</v>
       </c>
       <c r="R11">
-        <v>785.2169078494079</v>
+        <v>7658.193439655604</v>
       </c>
       <c r="S11">
-        <v>0.06933582028329117</v>
+        <v>0.06948104192539593</v>
       </c>
       <c r="T11">
-        <v>0.06933582028329117</v>
+        <v>0.06948104192539595</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.6077899973236</v>
+        <v>39.65536166666666</v>
       </c>
       <c r="H12">
-        <v>36.6077899973236</v>
+        <v>118.966085</v>
       </c>
       <c r="I12">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="J12">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.530272502576</v>
+        <v>16.29472433333333</v>
       </c>
       <c r="N12">
-        <v>15.530272502576</v>
+        <v>48.884173</v>
       </c>
       <c r="O12">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="P12">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="Q12">
-        <v>568.5289543755115</v>
+        <v>646.1731866969673</v>
       </c>
       <c r="R12">
-        <v>568.5289543755115</v>
+        <v>5815.558680272705</v>
       </c>
       <c r="S12">
-        <v>0.05020195185861679</v>
+        <v>0.05276323713517996</v>
       </c>
       <c r="T12">
-        <v>0.05020195185861679</v>
+        <v>0.05276323713517996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.6077899973236</v>
+        <v>39.65536166666666</v>
       </c>
       <c r="H13">
-        <v>36.6077899973236</v>
+        <v>118.966085</v>
       </c>
       <c r="I13">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="J13">
-        <v>0.2308021751309083</v>
+        <v>0.2379692927337279</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.3346439345504</v>
+        <v>19.56386866666667</v>
       </c>
       <c r="N13">
-        <v>19.3346439345504</v>
+        <v>58.69160600000001</v>
       </c>
       <c r="O13">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="P13">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="Q13">
-        <v>707.7985848290475</v>
+        <v>775.8122875758345</v>
       </c>
       <c r="R13">
-        <v>707.7985848290475</v>
+        <v>6982.31058818251</v>
       </c>
       <c r="S13">
-        <v>0.06249966726886454</v>
+        <v>0.06334891101098408</v>
       </c>
       <c r="T13">
-        <v>0.06249966726886454</v>
+        <v>0.0633489110109841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.330501452737</v>
+        <v>45.45576366666668</v>
       </c>
       <c r="H14">
-        <v>45.330501452737</v>
+        <v>136.367291</v>
       </c>
       <c r="I14">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="J14">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.085661138887</v>
+        <v>16.17516666666667</v>
       </c>
       <c r="N14">
-        <v>15.085661138887</v>
+        <v>48.52549999999999</v>
       </c>
       <c r="O14">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="P14">
-        <v>0.2112836921596473</v>
+        <v>0.2200960555056711</v>
       </c>
       <c r="Q14">
-        <v>683.8405841718153</v>
+        <v>735.2545532689446</v>
       </c>
       <c r="R14">
-        <v>683.8405841718153</v>
+        <v>6617.290979420501</v>
       </c>
       <c r="S14">
-        <v>0.0603841401943566</v>
+        <v>0.06003717137684847</v>
       </c>
       <c r="T14">
-        <v>0.0603841401943566</v>
+        <v>0.06003717137684847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.330501452737</v>
+        <v>45.45576366666668</v>
       </c>
       <c r="H15">
-        <v>45.330501452737</v>
+        <v>136.367291</v>
       </c>
       <c r="I15">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="J15">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.4494485437885</v>
+        <v>21.45763766666667</v>
       </c>
       <c r="N15">
-        <v>21.4494485437885</v>
+        <v>64.372913</v>
       </c>
       <c r="O15">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596838</v>
       </c>
       <c r="P15">
-        <v>0.3004123346929668</v>
+        <v>0.2919748221596839</v>
       </c>
       <c r="Q15">
-        <v>972.3142583746121</v>
+        <v>975.373306620965</v>
       </c>
       <c r="R15">
-        <v>972.3142583746121</v>
+        <v>8778.359759588684</v>
       </c>
       <c r="S15">
-        <v>0.08585679447757512</v>
+        <v>0.07964405538959839</v>
       </c>
       <c r="T15">
-        <v>0.08585679447757512</v>
+        <v>0.0796440553895984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.330501452737</v>
+        <v>45.45576366666668</v>
       </c>
       <c r="H16">
-        <v>45.330501452737</v>
+        <v>136.367291</v>
       </c>
       <c r="I16">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="J16">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.530272502576</v>
+        <v>16.29472433333333</v>
       </c>
       <c r="N16">
-        <v>15.530272502576</v>
+        <v>48.884173</v>
       </c>
       <c r="O16">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="P16">
-        <v>0.2175107397932572</v>
+        <v>0.2217228808349596</v>
       </c>
       <c r="Q16">
-        <v>703.9950402394229</v>
+        <v>740.6891383094828</v>
       </c>
       <c r="R16">
-        <v>703.9950402394229</v>
+        <v>6666.202244785345</v>
       </c>
       <c r="S16">
-        <v>0.06216380862717025</v>
+        <v>0.06048093212880875</v>
       </c>
       <c r="T16">
-        <v>0.06216380862717025</v>
+        <v>0.06048093212880876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.330501452737</v>
+        <v>45.45576366666668</v>
       </c>
       <c r="H17">
-        <v>45.330501452737</v>
+        <v>136.367291</v>
       </c>
       <c r="I17">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="J17">
-        <v>0.2857965022152773</v>
+        <v>0.272777134687457</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3346439345504</v>
+        <v>19.56386866666667</v>
       </c>
       <c r="N17">
-        <v>19.3346439345504</v>
+        <v>58.69160600000001</v>
       </c>
       <c r="O17">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="P17">
-        <v>0.2707932333541287</v>
+        <v>0.2662062414996854</v>
       </c>
       <c r="Q17">
-        <v>876.4491049632895</v>
+        <v>889.2905905177054</v>
       </c>
       <c r="R17">
-        <v>876.4491049632895</v>
+        <v>8003.615314659349</v>
       </c>
       <c r="S17">
-        <v>0.07739175891617535</v>
+        <v>0.07261497579220139</v>
       </c>
       <c r="T17">
-        <v>0.07739175891617535</v>
+        <v>0.0726149757922014</v>
       </c>
     </row>
   </sheetData>
